--- a/tuna_abundance.xlsx
+++ b/tuna_abundance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Documents\Python Scripts\GitHub\tuna_abundance_bazaruto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackr\OneDrive - University of Southampton\Documents\Marine bio\BCSS\GitHub\tuna_abundance_bazaruto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C978353B-9005-437E-86BC-0E93B9099AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C83921-F85B-4CB0-B9A0-A39CAB6EB31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15B6EFED-DED2-4ECC-9C3C-24CC8D37275E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15B6EFED-DED2-4ECC-9C3C-24CC8D37275E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>Zitone</t>
-  </si>
-  <si>
-    <t>Yellowfin tuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bonito</t>
   </si>
   <si>
     <t>9-Mile</t>
@@ -554,28 +548,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A76E81-245E-47E9-BF18-BD1F3F9E5804}">
   <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44410</v>
       </c>
@@ -657,7 +651,7 @@
         <v>2.4226700251889168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44410</v>
       </c>
@@ -698,7 +692,7 @@
         <v>2.3923076923076927</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44289</v>
       </c>
@@ -739,7 +733,7 @@
         <v>1.538461538461539</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44288</v>
       </c>
@@ -780,7 +774,7 @@
         <v>3.3533665835411477</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44288</v>
       </c>
@@ -821,7 +815,7 @@
         <v>2.9044887780548634</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44288</v>
       </c>
@@ -862,7 +856,7 @@
         <v>0.82121212121212073</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44276</v>
       </c>
@@ -903,7 +897,7 @@
         <v>2.1729658792650919</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44274</v>
       </c>
@@ -944,7 +938,7 @@
         <v>1.7153846153846144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44274</v>
       </c>
@@ -985,7 +979,7 @@
         <v>1.7153846153846144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44274</v>
       </c>
@@ -1026,7 +1020,7 @@
         <v>1.5246153846153843</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44274</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>2.8489949748743717</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44274</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>3.1557788944723617</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44274</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>3.6781407035175882</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44274</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>3.8688442211055278</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44274</v>
       </c>
@@ -1231,7 +1225,7 @@
         <v>3.9932160804020098</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>44248</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>2.5295081967213116</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44234</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>2.5688524590163935</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>44234</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>3.0583518930957685</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>44227</v>
       </c>
@@ -1395,7 +1389,7 @@
         <v>4.1511627906976747</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>44227</v>
       </c>
@@ -1436,7 +1430,7 @@
         <v>3.8309302325581398</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>44224</v>
       </c>
@@ -1477,7 +1471,7 @@
         <v>2.9648837209302328</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>44208</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>2.4747787610619474</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>44208</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>2.4747787610619474</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>44206</v>
       </c>
@@ -1600,7 +1594,7 @@
         <v>1.5964757709251103</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>44203</v>
       </c>
@@ -1641,7 +1635,7 @@
         <v>2.3765586034912718</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>44199</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>3.2264150943396226</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>44186</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>3.3374331550802139</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>44155</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>3.7881612090680097</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>44155</v>
       </c>
@@ -1805,7 +1799,7 @@
         <v>3.7224181360201509</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>44155</v>
       </c>
@@ -1846,7 +1840,7 @@
         <v>3.5471032745591939</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>44155</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>3.1745591939546602</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>44122</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>2.2748283752860416</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>44122</v>
       </c>
@@ -1969,7 +1963,7 @@
         <v>2.0757437070938223</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>44122</v>
       </c>
@@ -2010,7 +2004,7 @@
         <v>1.8102974828375289</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>44122</v>
       </c>
@@ -2051,12 +2045,12 @@
         <v>0.37688787185354666</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>44056</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>23.8</v>
@@ -2092,12 +2086,12 @@
         <v>2.0724137931034483</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>44056</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>23.9</v>
@@ -2118,7 +2112,7 @@
         <v>42.9</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J38">
         <v>10.494444444444444</v>
@@ -2133,12 +2127,12 @@
         <v>2.0310344827586206</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>44055</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>23.9</v>
@@ -2174,12 +2168,12 @@
         <v>1.7434146341463417</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>44054</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>23.8</v>
@@ -2215,12 +2209,12 @@
         <v>1.6484184914841848</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>44054</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -2256,12 +2250,12 @@
         <v>1.5189781021897808</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>44054</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>24.1</v>
@@ -2297,12 +2291,12 @@
         <v>1.4357664233576641</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>44054</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>29.2</v>
@@ -2338,12 +2332,12 @@
         <v>1.3756690997566909</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43967</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>24.8</v>
@@ -2364,7 +2358,7 @@
         <v>12.7</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J44">
         <v>6.8833333333333329</v>
@@ -2379,12 +2373,12 @@
         <v>2.2507836990595611</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43967</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>26.4</v>
@@ -2420,7 +2414,7 @@
         <v>2.6389021479713604</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43964</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>3.2020618556701028</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43964</v>
       </c>
@@ -2502,7 +2496,7 @@
         <v>3.1481958762886593</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43964</v>
       </c>
@@ -2543,7 +2537,7 @@
         <v>2.9572164948453605</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43964</v>
       </c>
@@ -2584,7 +2578,7 @@
         <v>2.9131443298969071</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43964</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>2.8396907216494842</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43964</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>2.7319587628865976</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43963</v>
       </c>
@@ -2707,7 +2701,7 @@
         <v>3.3321695760598495</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43963</v>
       </c>
@@ -2748,7 +2742,7 @@
         <v>3.2344139650872812</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43963</v>
       </c>
@@ -2789,7 +2783,7 @@
         <v>2.9411471321695757</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43963</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>2.3197007481296752</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43963</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>2.1521197007481296</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43963</v>
       </c>
@@ -2912,7 +2906,7 @@
         <v>1.3491271820448865</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43963</v>
       </c>
@@ -2938,7 +2932,7 @@
         <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J58">
         <v>3.3611111111111107</v>
@@ -2953,7 +2947,7 @@
         <v>1.8323262839879164</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43963</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J59">
         <v>3.3611111111111107</v>
@@ -2994,7 +2988,7 @@
         <v>1.8323262839879164</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43963</v>
       </c>
@@ -3020,7 +3014,7 @@
         <v>44.5</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J60">
         <v>4.1388888888888857</v>
@@ -3035,7 +3029,7 @@
         <v>2.0776435045317223</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43960</v>
       </c>
@@ -3061,7 +3055,7 @@
         <v>22.9</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J61">
         <v>14.483333333333333</v>
@@ -3076,7 +3070,7 @@
         <v>3.8957746478873236</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43960</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>25.8</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J62">
         <v>14.555555555555555</v>
@@ -3117,7 +3111,7 @@
         <v>3.7492957746478863</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43960</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>2.9605633802816897</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43960</v>
       </c>
@@ -3199,7 +3193,7 @@
         <v>2.4760563380281679</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43960</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>1.1239436619718295</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43954</v>
       </c>
@@ -3281,7 +3275,7 @@
         <v>1.9183606557377051</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43954</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>2.1521311475409837</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43954</v>
       </c>
@@ -3363,7 +3357,7 @@
         <v>2.212459016393443</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43954</v>
       </c>
@@ -3404,7 +3398,7 @@
         <v>2.2878688524590163</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43953</v>
       </c>
@@ -3445,7 +3439,7 @@
         <v>2.422408026755853</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43953</v>
       </c>
@@ -3486,7 +3480,7 @@
         <v>2.6762541806020064</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43953</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>2.9742474916387964</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43951</v>
       </c>
@@ -3568,7 +3562,7 @@
         <v>2.5890109890109896</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43951</v>
       </c>
@@ -3609,7 +3603,7 @@
         <v>2.0598901098901097</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43951</v>
       </c>
@@ -3650,7 +3644,7 @@
         <v>1.985714285714286</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43951</v>
       </c>
@@ -3691,7 +3685,7 @@
         <v>1.7780219780219777</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43951</v>
       </c>
@@ -3732,7 +3726,7 @@
         <v>1.6189873417721525</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43951</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v>1.6531645569620252</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43949</v>
       </c>
@@ -3814,7 +3808,7 @@
         <v>3.836895674300254</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43949</v>
       </c>
@@ -3855,7 +3849,7 @@
         <v>3.6944020356234093</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43949</v>
       </c>
@@ -3896,7 +3890,7 @@
         <v>3.5608142493638675</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43949</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>3.2936386768447838</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43949</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>3.0264631043256989</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>43949</v>
       </c>
@@ -4019,7 +4013,7 @@
         <v>2.777099236641221</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>43949</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>2.7058524173027987</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>43949</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>2.2338422391857509</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>43949</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>1.3610687022900763</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>43949</v>
       </c>
@@ -4168,7 +4162,7 @@
         <v>71</v>
       </c>
       <c r="I88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J88">
         <v>7.8388888888888886</v>
@@ -4183,7 +4177,7 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>43949</v>
       </c>
@@ -4224,7 +4218,7 @@
         <v>2.3529411764705892</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>43949</v>
       </c>
@@ -4265,7 +4259,7 @@
         <v>2.4305882352941186</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>43949</v>
       </c>
@@ -4306,7 +4300,7 @@
         <v>2.5567647058823533</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>43949</v>
       </c>
@@ -4347,7 +4341,7 @@
         <v>2.7120588235294116</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>43949</v>
       </c>
@@ -4388,7 +4382,7 @@
         <v>2.7411764705882353</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>43946</v>
       </c>
@@ -4411,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J94">
         <v>2.2222222222222214</v>
@@ -4429,7 +4423,7 @@
         <v>2.9985915492957753</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>43946</v>
       </c>
@@ -4470,7 +4464,7 @@
         <v>1.9422535211267613</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>43946</v>
       </c>
@@ -4511,7 +4505,7 @@
         <v>1.8366197183098607</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>43946</v>
       </c>
@@ -4552,7 +4546,7 @@
         <v>1.7838028169014088</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>43938</v>
       </c>
@@ -4593,7 +4587,7 @@
         <v>2.3743682310469314</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>43938</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>2.4981949458483754</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>43938</v>
       </c>
@@ -4675,7 +4669,7 @@
         <v>2.4981949458483754</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>43938</v>
       </c>
@@ -4716,7 +4710,7 @@
         <v>2.5184115523465702</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>43938</v>
       </c>
@@ -4757,7 +4751,7 @@
         <v>2.5184115523465702</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>43938</v>
       </c>
@@ -4798,7 +4792,7 @@
         <v>2.6169675090252706</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>43938</v>
       </c>
@@ -4839,7 +4833,7 @@
         <v>2.6169675090252706</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>43926</v>
       </c>
@@ -4865,7 +4859,7 @@
         <v>5.3</v>
       </c>
       <c r="I105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J105">
         <v>2.9999999999999991</v>
@@ -4880,7 +4874,7 @@
         <v>1.4955503512880561</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>43926</v>
       </c>
@@ -4906,7 +4900,7 @@
         <v>12.3</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J106">
         <v>2.9666666666666659</v>
@@ -4921,7 +4915,7 @@
         <v>1.4878220140515221</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>43926</v>
       </c>
@@ -4947,7 +4941,7 @@
         <v>25</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -4962,7 +4956,7 @@
         <v>1.0318501170960186</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43921</v>
       </c>
@@ -4988,7 +4982,7 @@
         <v>13.7</v>
       </c>
       <c r="I108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J108">
         <v>7.3111111111111109</v>
@@ -5003,7 +4997,7 @@
         <v>3.8358839050131928</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>43921</v>
       </c>
@@ -5029,7 +5023,7 @@
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J109">
         <v>7.0555555555555554</v>
@@ -5044,7 +5038,7 @@
         <v>3.508179419525066</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>43921</v>
       </c>
@@ -5085,7 +5079,7 @@
         <v>2.7102902374670186</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>43921</v>
       </c>
@@ -5126,7 +5120,7 @@
         <v>2.6889182058047494</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>43915</v>
       </c>
@@ -5152,7 +5146,7 @@
         <v>3.4</v>
       </c>
       <c r="I112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J112">
         <v>1.6166666666666667</v>
@@ -5167,7 +5161,7 @@
         <v>3.5411214953271033</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>43915</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>46.2</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J113">
         <v>1.8222222222222224</v>
@@ -5208,7 +5202,7 @@
         <v>3.1088785046728975</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>43915</v>
       </c>
@@ -5234,7 +5228,7 @@
         <v>45.7</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J114">
         <v>1.8722222222222227</v>
@@ -5249,7 +5243,7 @@
         <v>3.0037383177570089</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>43915</v>
       </c>
@@ -5275,7 +5269,7 @@
         <v>44</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J115">
         <v>1.8722222222222227</v>
@@ -5290,7 +5284,7 @@
         <v>3.0037383177570089</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>43915</v>
       </c>
@@ -5316,7 +5310,7 @@
         <v>44</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J116">
         <v>1.8722222222222227</v>
@@ -5331,7 +5325,7 @@
         <v>3.0037383177570089</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>43915</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>44.1</v>
       </c>
       <c r="I117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J117">
         <v>1.9777777777777779</v>
@@ -5372,7 +5366,7 @@
         <v>2.7817757009345798</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>43915</v>
       </c>
@@ -5398,7 +5392,7 @@
         <v>44.1</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J118">
         <v>1.9777777777777779</v>
@@ -5413,7 +5407,7 @@
         <v>2.7817757009345798</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>43915</v>
       </c>
@@ -5439,7 +5433,7 @@
         <v>44.6</v>
       </c>
       <c r="I119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J119">
         <v>2.1388888888888888</v>
@@ -5454,7 +5448,7 @@
         <v>2.4429906542056079</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>43915</v>
       </c>
@@ -5480,7 +5474,7 @@
         <v>44.6</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J120">
         <v>2.1444444444444448</v>
@@ -5495,7 +5489,7 @@
         <v>2.4313084112149532</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>43915</v>
       </c>
@@ -5521,7 +5515,7 @@
         <v>45.4</v>
       </c>
       <c r="I121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J121">
         <v>2.2166666666666668</v>
@@ -5536,7 +5530,7 @@
         <v>2.2794392523364486</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>43915</v>
       </c>
@@ -5562,7 +5556,7 @@
         <v>45.4</v>
       </c>
       <c r="I122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J122">
         <v>2.2166666666666668</v>
@@ -5577,7 +5571,7 @@
         <v>2.2794392523364486</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>43912</v>
       </c>
@@ -5603,7 +5597,7 @@
         <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J123">
         <v>10.277777777777779</v>
@@ -5618,7 +5612,7 @@
         <v>1.5392201834862389</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>43912</v>
       </c>
@@ -5644,7 +5638,7 @@
         <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J124">
         <v>10.277777777777779</v>
@@ -5659,7 +5653,7 @@
         <v>1.5392201834862389</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>43912</v>
       </c>
@@ -5700,7 +5694,7 @@
         <v>3.3816720257234731</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>43912</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J126">
         <v>12.944444444444445</v>
@@ -5741,7 +5735,7 @@
         <v>3.5003215434083623</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>43912</v>
       </c>
@@ -5767,7 +5761,7 @@
         <v>31.2</v>
       </c>
       <c r="I127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J127">
         <v>12.972222222222221</v>
@@ -5782,7 +5776,7 @@
         <v>3.5662379421221866</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>43912</v>
       </c>
@@ -5808,7 +5802,7 @@
         <v>27.5</v>
       </c>
       <c r="I128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J128">
         <v>13.166666666666666</v>
@@ -5823,7 +5817,7 @@
         <v>3.7639871382636669</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>43912</v>
       </c>
@@ -5849,7 +5843,7 @@
         <v>16.8</v>
       </c>
       <c r="I129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J129">
         <v>13.333333333333332</v>
@@ -5864,7 +5858,7 @@
         <v>3.895819935691319</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>43911</v>
       </c>
@@ -5890,7 +5884,7 @@
         <v>18.7</v>
       </c>
       <c r="I130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J130">
         <v>5.3555555555555543</v>
@@ -5905,7 +5899,7 @@
         <v>2.3851351351351351</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>43911</v>
       </c>
@@ -5946,7 +5940,7 @@
         <v>1.513513513513514</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>43911</v>
       </c>
@@ -5972,7 +5966,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J132">
         <v>3.7833333333333332</v>
@@ -5987,7 +5981,7 @@
         <v>1.3513513513513513</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>43911</v>
       </c>
@@ -6013,7 +6007,7 @@
         <v>31.9</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J133">
         <v>4.5166666666666675</v>
@@ -6028,7 +6022,7 @@
         <v>1.0540540540540539</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>43911</v>
       </c>
@@ -6054,7 +6048,7 @@
         <v>29</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J134">
         <v>5.2333333333333334</v>
@@ -6069,7 +6063,7 @@
         <v>1.376221498371335</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>43909</v>
       </c>
@@ -6095,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J135">
         <v>7.333333333333333</v>
@@ -6110,7 +6104,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>43909</v>
       </c>
@@ -6151,7 +6145,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>43909</v>
       </c>
@@ -6192,7 +6186,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>43909</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>43909</v>
       </c>
@@ -6274,7 +6268,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>43909</v>
       </c>
@@ -6315,7 +6309,7 @@
         <v>2.1354838709677417</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>43909</v>
       </c>
@@ -6356,7 +6350,7 @@
         <v>2.1903225806451614</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>43909</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>2.2258064516129035</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>43909</v>
       </c>
@@ -6438,7 +6432,7 @@
         <v>2.2548387096774194</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>43909</v>
       </c>
@@ -6479,7 +6473,7 @@
         <v>2.2870967741935484</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>43909</v>
       </c>
@@ -6520,7 +6514,7 @@
         <v>2.3032258064516129</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>43909</v>
       </c>
@@ -6561,7 +6555,7 @@
         <v>2.3516129032258064</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>43909</v>
       </c>
@@ -6602,7 +6596,7 @@
         <v>2.3838709677419354</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>43909</v>
       </c>
@@ -6643,7 +6637,7 @@
         <v>2.4322580645161289</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>43905</v>
       </c>
@@ -6684,12 +6678,12 @@
         <v>3.9265624999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>43905</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C150">
         <v>29</v>
@@ -6725,7 +6719,7 @@
         <v>3.8640625000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>43905</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>3.8093750000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>43905</v>
       </c>
@@ -6807,7 +6801,7 @@
         <v>3.4890625000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>43905</v>
       </c>
@@ -6848,12 +6842,12 @@
         <v>3.0515625000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>43903</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C154">
         <v>28.3</v>
@@ -6874,7 +6868,7 @@
         <v>26</v>
       </c>
       <c r="I154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J154">
         <v>7.4388888888888891</v>
@@ -6889,12 +6883,12 @@
         <v>4.8811594202898547</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>43903</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C155">
         <v>28.3</v>
@@ -6915,7 +6909,7 @@
         <v>13</v>
       </c>
       <c r="I155" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J155">
         <v>7.322222222222222</v>
@@ -6930,12 +6924,12 @@
         <v>4.6224637681159413</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>43903</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C156">
         <v>28.3</v>
@@ -6971,7 +6965,7 @@
         <v>4.4623188405797105</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>43903</v>
       </c>
@@ -7012,12 +7006,12 @@
         <v>3.907971014492754</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>43903</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C158">
         <v>28.4</v>
@@ -7053,7 +7047,7 @@
         <v>3.5507246376811601</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>43903</v>
       </c>
@@ -7094,12 +7088,12 @@
         <v>2.3681159420289859</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>43903</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C160">
         <v>29.5</v>
@@ -7135,7 +7129,7 @@
         <v>0.55619047619047501</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>43901</v>
       </c>
@@ -7176,7 +7170,7 @@
         <v>4.6534883720930234</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>43901</v>
       </c>
@@ -7217,7 +7211,7 @@
         <v>3.9139534883720932</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>43901</v>
       </c>
@@ -7258,12 +7252,12 @@
         <v>2.909302325581395</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>43901</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C164">
         <v>30.4</v>
@@ -7299,7 +7293,7 @@
         <v>1.1930232558139524</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>43880</v>
       </c>
@@ -7325,7 +7319,7 @@
         <v>30</v>
       </c>
       <c r="I165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J165">
         <v>11</v>
@@ -7340,7 +7334,7 @@
         <v>2.1843373493975906</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>43880</v>
       </c>
@@ -7381,7 +7375,7 @@
         <v>1.9982817869415808</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>43878</v>
       </c>
@@ -7407,7 +7401,7 @@
         <v>32</v>
       </c>
       <c r="I167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J167">
         <v>4.6666666666666661</v>
@@ -7422,7 +7416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>43878</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>32</v>
       </c>
       <c r="I168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J168">
         <v>4.6666666666666661</v>
@@ -7463,7 +7457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>43867</v>
       </c>
@@ -7489,7 +7483,7 @@
         <v>53</v>
       </c>
       <c r="I169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J169">
         <v>9</v>
@@ -7504,7 +7498,7 @@
         <v>1.8148936170212766</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>43867</v>
       </c>
@@ -7530,7 +7524,7 @@
         <v>48</v>
       </c>
       <c r="I170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J170">
         <v>9</v>
@@ -7545,7 +7539,7 @@
         <v>1.7316784869976358</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>43867</v>
       </c>
@@ -7571,7 +7565,7 @@
         <v>50</v>
       </c>
       <c r="I171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J171">
         <v>9</v>
@@ -7586,7 +7580,7 @@
         <v>1.6016548463356974</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>43867</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>50</v>
       </c>
       <c r="I172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J172">
         <v>9</v>
@@ -7627,7 +7621,7 @@
         <v>1.6016548463356974</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>43846</v>
       </c>
@@ -7653,7 +7647,7 @@
         <v>42</v>
       </c>
       <c r="I173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J173">
         <v>6.0555555555555554</v>
@@ -7668,7 +7662,7 @@
         <v>2.587218045112782</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>43839</v>
       </c>
@@ -7709,7 +7703,7 @@
         <v>1.1094339622641511</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>43839</v>
       </c>
@@ -7750,7 +7744,7 @@
         <v>1.1094339622641511</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>43839</v>
       </c>
@@ -7791,7 +7785,7 @@
         <v>1.4660377358490564</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>43839</v>
       </c>
@@ -7817,7 +7811,7 @@
         <v>24</v>
       </c>
       <c r="I177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J177">
         <v>9.3333333333333339</v>
@@ -7832,7 +7826,7 @@
         <v>2.0688679245283015</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>43836</v>
       </c>
@@ -7873,7 +7867,7 @@
         <v>1.6186335403726708</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>43836</v>
       </c>
@@ -7914,7 +7908,7 @@
         <v>1.7211180124223606</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>43836</v>
       </c>
@@ -7955,7 +7949,7 @@
         <v>1.7537267080745345</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>43835</v>
       </c>
@@ -7996,7 +7990,7 @@
         <v>2.160869565217391</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>43835</v>
       </c>
@@ -8037,7 +8031,7 @@
         <v>2.4124223602484469</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>43831</v>
       </c>
@@ -8078,7 +8072,7 @@
         <v>3.7657492354740061</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>43831</v>
       </c>
@@ -8119,7 +8113,7 @@
         <v>3.12544080604534</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>43831</v>
       </c>
@@ -8160,7 +8154,7 @@
         <v>2.7128463476070532</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>43830</v>
       </c>
@@ -8201,7 +8195,7 @@
         <v>1.8931034482758617</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>43830</v>
       </c>
@@ -8242,7 +8236,7 @@
         <v>1.7748768472906398</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>43829</v>
       </c>
@@ -8283,7 +8277,7 @@
         <v>2.389903846153846</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>43829</v>
       </c>
@@ -8324,7 +8318,7 @@
         <v>1.9362980769230771</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>43825</v>
       </c>
@@ -8350,7 +8344,7 @@
         <v>22.9</v>
       </c>
       <c r="I190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J190">
         <v>8.4722222222222214</v>
@@ -8365,7 +8359,7 @@
         <v>1.7166123778501619</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>43823</v>
       </c>
@@ -8406,7 +8400,7 @@
         <v>1.1512415349887126</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>43823</v>
       </c>
@@ -8447,7 +8441,7 @@
         <v>1.134537246049661</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>43821</v>
       </c>
@@ -8488,7 +8482,7 @@
         <v>1.5386117136659434</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>43821</v>
       </c>
@@ -8529,7 +8523,7 @@
         <v>1.4718004338394794</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>43821</v>
       </c>
@@ -8570,7 +8564,7 @@
         <v>1.3763557483731019</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>43821</v>
       </c>
@@ -8611,7 +8605,7 @@
         <v>1.3763557483731019</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>43820</v>
       </c>
@@ -8652,7 +8646,7 @@
         <v>2.1996805111821089</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>43820</v>
       </c>
@@ -8693,7 +8687,7 @@
         <v>2.4549520766773165</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>43820</v>
       </c>
@@ -8734,7 +8728,7 @@
         <v>2.6450479233226836</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>43818</v>
       </c>
@@ -8775,7 +8769,7 @@
         <v>3.3783163265306126</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>43818</v>
       </c>
@@ -8816,7 +8810,7 @@
         <v>3.2872448979591837</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>43818</v>
       </c>
@@ -8857,7 +8851,7 @@
         <v>2.6627551020408164</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>43817</v>
       </c>
@@ -8883,7 +8877,7 @@
         <v>12.6</v>
       </c>
       <c r="I203" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J203">
         <v>6.9499999999999993</v>
@@ -8898,7 +8892,7 @@
         <v>3.4983425414364637</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>43817</v>
       </c>
@@ -8924,7 +8918,7 @@
         <v>27</v>
       </c>
       <c r="I204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J204">
         <v>6.5277777777777777</v>
@@ -8939,7 +8933,7 @@
         <v>1.8811083123425694</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>43817</v>
       </c>
@@ -8980,7 +8974,7 @@
         <v>2.9224181360201511</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>43813</v>
       </c>
@@ -9006,7 +9000,7 @@
         <v>19.8</v>
       </c>
       <c r="I206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J206">
         <v>12</v>
@@ -9021,7 +9015,7 @@
         <v>1.4474770642201831</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>43813</v>
       </c>
@@ -9047,7 +9041,7 @@
         <v>29.1</v>
       </c>
       <c r="I207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J207">
         <v>12</v>
@@ -9062,7 +9056,7 @@
         <v>1.4474770642201831</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>43807</v>
       </c>
@@ -9088,7 +9082,7 @@
         <v>16</v>
       </c>
       <c r="I208" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J208">
         <v>6.6666666666666661</v>
@@ -9103,7 +9097,7 @@
         <v>1.9944954128440369</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>43806</v>
       </c>
@@ -9129,7 +9123,7 @@
         <v>60</v>
       </c>
       <c r="I209" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J209">
         <v>7.3333333333333339</v>
@@ -9144,7 +9138,7 @@
         <v>2.3603658536585366</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>43806</v>
       </c>
@@ -9185,7 +9179,7 @@
         <v>2.3603658536585366</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>43800</v>
       </c>
@@ -9211,7 +9205,7 @@
         <v>23.8</v>
       </c>
       <c r="I211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J211">
         <v>5.666666666666667</v>
@@ -9226,7 +9220,7 @@
         <v>2.2992647058823525</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>43793</v>
       </c>
@@ -9267,7 +9261,7 @@
         <v>1.2859424920127798</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>43793</v>
       </c>
@@ -9308,7 +9302,7 @@
         <v>1.2859424920127798</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>43793</v>
       </c>
@@ -9349,7 +9343,7 @@
         <v>1.2859424920127798</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>43793</v>
       </c>
@@ -9390,7 +9384,7 @@
         <v>1.2859424920127798</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>43793</v>
       </c>
@@ -9431,7 +9425,7 @@
         <v>1.2859424920127798</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>43791</v>
       </c>
@@ -9457,7 +9451,7 @@
         <v>25.7</v>
       </c>
       <c r="I217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J217">
         <v>4.3333333333333339</v>
@@ -9472,7 +9466,7 @@
         <v>2.5977272727272736</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>43791</v>
       </c>
@@ -9498,7 +9492,7 @@
         <v>30.5</v>
       </c>
       <c r="I218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J218">
         <v>4.3333333333333339</v>
@@ -9513,7 +9507,7 @@
         <v>2.5977272727272736</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>43791</v>
       </c>
@@ -9539,7 +9533,7 @@
         <v>28.1</v>
       </c>
       <c r="I219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J219">
         <v>4.3333333333333339</v>
@@ -9554,7 +9548,7 @@
         <v>2.5977272727272736</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>43791</v>
       </c>
@@ -9580,7 +9574,7 @@
         <v>23.3</v>
       </c>
       <c r="I220" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J220">
         <v>4.3333333333333339</v>
@@ -9595,7 +9589,7 @@
         <v>2.5977272727272736</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>43789</v>
       </c>
@@ -9636,7 +9630,7 @@
         <v>2.9721549636803877</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>43789</v>
       </c>
@@ -9677,7 +9671,7 @@
         <v>2.9721549636803877</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>43789</v>
       </c>
@@ -9718,7 +9712,7 @@
         <v>2.9721549636803877</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>43786</v>
       </c>
@@ -9759,7 +9753,7 @@
         <v>2.1806682577565626</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>43782</v>
       </c>
@@ -9800,7 +9794,7 @@
         <v>0.775644028103045</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>43782</v>
       </c>
@@ -9841,7 +9835,7 @@
         <v>0.775644028103045</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>43782</v>
       </c>
@@ -9882,7 +9876,7 @@
         <v>0.775644028103045</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>43777</v>
       </c>
@@ -9923,7 +9917,7 @@
         <v>1.9742331288343564</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>43776</v>
       </c>
@@ -9949,7 +9943,7 @@
         <v>63</v>
       </c>
       <c r="I229" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J229">
         <v>10.333333333333334</v>
@@ -9964,7 +9958,7 @@
         <v>2.3978193146417448</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>43775</v>
       </c>
@@ -9990,7 +9984,7 @@
         <v>16</v>
       </c>
       <c r="I230" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J230">
         <v>6.6666666666666661</v>
@@ -10005,7 +9999,7 @@
         <v>2.5089820359281436</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>43775</v>
       </c>
@@ -10031,7 +10025,7 @@
         <v>16</v>
       </c>
       <c r="I231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J231">
         <v>6.6666666666666661</v>
@@ -10046,7 +10040,7 @@
         <v>2.5089820359281436</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>43775</v>
       </c>
@@ -10072,7 +10066,7 @@
         <v>16</v>
       </c>
       <c r="I232" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J232">
         <v>6.6666666666666661</v>
@@ -10087,7 +10081,7 @@
         <v>2.5089820359281436</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>43773</v>
       </c>
@@ -10128,7 +10122,7 @@
         <v>2.6054347826086959</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>43772</v>
       </c>
@@ -10169,7 +10163,7 @@
         <v>2.4828571428571431</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>43772</v>
       </c>
@@ -10210,7 +10204,7 @@
         <v>2.4828571428571431</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>43771</v>
       </c>
@@ -10236,7 +10230,7 @@
         <v>16</v>
       </c>
       <c r="I236" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J236">
         <v>10</v>
@@ -10251,7 +10245,7 @@
         <v>2.3231155778894466</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>43765</v>
       </c>
@@ -10292,7 +10286,7 @@
         <v>7.8132118451024191E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>43761</v>
       </c>
@@ -10333,7 +10327,7 @@
         <v>2.7270967741935483</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>43760</v>
       </c>
@@ -10374,7 +10368,7 @@
         <v>2.7373271889400921</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>43758</v>
       </c>
@@ -10400,7 +10394,7 @@
         <v>16</v>
       </c>
       <c r="I240" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J240">
         <v>9.6666666666666661</v>
@@ -10415,7 +10409,7 @@
         <v>2.4104218362282879</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>43757</v>
       </c>
@@ -10456,7 +10450,7 @@
         <v>2.1895631067961161</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>43744</v>
       </c>
@@ -10497,7 +10491,7 @@
         <v>2.5722063037249283</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>43744</v>
       </c>
@@ -10538,7 +10532,7 @@
         <v>2.5722063037249283</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>43744</v>
       </c>
@@ -10579,7 +10573,7 @@
         <v>2.5722063037249283</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>43744</v>
       </c>
@@ -10620,7 +10614,7 @@
         <v>2.5722063037249283</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>43743</v>
       </c>
@@ -10646,7 +10640,7 @@
         <v>16</v>
       </c>
       <c r="I246" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J246">
         <v>3.666666666666667</v>
@@ -10661,7 +10655,7 @@
         <v>2.6160427807486628</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>43743</v>
       </c>
@@ -10687,7 +10681,7 @@
         <v>16</v>
       </c>
       <c r="I247" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J247">
         <v>3.666666666666667</v>
@@ -10702,7 +10696,7 @@
         <v>2.6160427807486628</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>43739</v>
       </c>
@@ -10743,7 +10737,7 @@
         <v>1.6085450346420309</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>43736</v>
       </c>
@@ -10784,7 +10778,7 @@
         <v>0.27330316742081529</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>43736</v>
       </c>
@@ -10825,7 +10819,7 @@
         <v>0.27330316742081529</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>43688</v>
       </c>
@@ -10866,7 +10860,7 @@
         <v>2.3201277955271569</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>43688</v>
       </c>
@@ -10907,7 +10901,7 @@
         <v>2.3201277955271569</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>43688</v>
       </c>
@@ -10948,7 +10942,7 @@
         <v>2.3201277955271569</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>43688</v>
       </c>
@@ -10989,7 +10983,7 @@
         <v>2.3201277955271569</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>43680</v>
       </c>
@@ -11030,7 +11024,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>43680</v>
       </c>
@@ -11071,7 +11065,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>43680</v>
       </c>
@@ -11112,7 +11106,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>43680</v>
       </c>
@@ -11153,7 +11147,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>43680</v>
       </c>
@@ -11194,7 +11188,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>43680</v>
       </c>
@@ -11235,7 +11229,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>43680</v>
       </c>
@@ -11276,7 +11270,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>43680</v>
       </c>
@@ -11317,7 +11311,7 @@
         <v>1.5555555555555549</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>43678</v>
       </c>
@@ -11358,7 +11352,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>43678</v>
       </c>
@@ -11399,7 +11393,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>43678</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>43678</v>
       </c>
@@ -11481,7 +11475,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>43678</v>
       </c>
@@ -11522,7 +11516,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>43678</v>
       </c>
@@ -11563,7 +11557,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>43678</v>
       </c>
@@ -11604,7 +11598,7 @@
         <v>0.78749999999999876</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>43651</v>
       </c>
@@ -11645,7 +11639,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>43651</v>
       </c>
@@ -11686,7 +11680,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>43541</v>
       </c>
@@ -11712,7 +11706,7 @@
         <v>16</v>
       </c>
       <c r="I272" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J272">
         <v>9</v>
